--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CP05MOAS-GL376\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1884" windowWidth="23484" windowHeight="10044" tabRatio="377"/>
+    <workbookView xWindow="1560" yWindow="1890" windowWidth="23490" windowHeight="10050" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Glider" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_FilterDatabase_1_1_1">Glider!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -170,6 +170,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -267,7 +273,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,6 +307,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -458,7 +467,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,7 +502,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,24 +711,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="9" width="19.77734375" customWidth="1"/>
-    <col min="10" max="11" width="15.109375" customWidth="1"/>
-    <col min="12" max="12" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -757,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -773,7 +782,9 @@
       <c r="E2" s="6">
         <v>42130</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G2" s="6">
         <v>42137</v>
       </c>
@@ -792,12 +803,20 @@
       <c r="L2" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="M2" s="12">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
+        <v>39.833333333333336</v>
+      </c>
+      <c r="N2" s="12">
+        <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
+        <v>-70.708333333333329</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
